--- a/doc/方法接口参数_20190529.xlsx
+++ b/doc/方法接口参数_20190529.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="601">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1523,10 +1523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String roleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">成功
 {
@@ -4241,10 +4237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增用户分配部门页面、工程师部门分配页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4376,6 +4368,18 @@
   <si>
     <t>部门对象
 (deptId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点界面只有角色(roleName)是运维管理员或科室负责人，新建盘点按钮才可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String roleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增用户分配部门页面、工程师部门分配页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4822,7 +4826,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4991,16 +4995,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5306,7 +5313,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5318,13 +5325,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="49" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>578</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5332,10 +5339,10 @@
         <v>43613</v>
       </c>
       <c r="B2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C2" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -5385,16 +5392,16 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>187</v>
@@ -5405,16 +5412,16 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>57</v>
@@ -5425,16 +5432,16 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -5445,16 +5452,16 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>494</v>
-      </c>
       <c r="D5" s="26" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>57</v>
@@ -5465,16 +5472,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>500</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>57</v>
@@ -5485,13 +5492,13 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>75</v>
@@ -5503,16 +5510,16 @@
         <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>569</v>
-      </c>
       <c r="D8" s="27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -5521,13 +5528,13 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>63</v>
@@ -5537,7 +5544,7 @@
     <row r="11" spans="1:6">
       <c r="A11" s="19"/>
       <c r="C11" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5552,25 +5559,25 @@
     <row r="13" spans="1:6" ht="20.25" customHeight="1">
       <c r="A13" s="21"/>
       <c r="B13" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="21"/>
       <c r="B14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5580,45 +5587,45 @@
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>573</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -5685,16 +5692,16 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="D2" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>57</v>
@@ -5705,16 +5712,16 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>57</v>
@@ -5725,16 +5732,16 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -5745,13 +5752,13 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>333</v>
-      </c>
       <c r="D5" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>75</v>
@@ -5769,7 +5776,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="19"/>
       <c r="C8" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5785,44 +5792,44 @@
       <c r="A10" s="21"/>
       <c r="B10" s="28"/>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1">
       <c r="A11" s="21"/>
       <c r="C11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -5832,37 +5839,37 @@
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="3:4">
@@ -5929,16 +5936,16 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>187</v>
@@ -5949,16 +5956,16 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>187</v>
@@ -5969,16 +5976,16 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>402</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -5989,16 +5996,16 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>57</v>
@@ -6014,20 +6021,20 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5">
       <c r="A9" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>115</v>
@@ -6041,70 +6048,70 @@
         <v>222</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1">
       <c r="A11" s="21"/>
       <c r="C11" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27" customHeight="1">
       <c r="A12" s="21"/>
       <c r="C12" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="21"/>
       <c r="C13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21"/>
       <c r="C14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="21"/>
       <c r="C15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -6168,16 +6175,16 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>379</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>187</v>
@@ -6188,16 +6195,16 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>187</v>
@@ -6208,16 +6215,16 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -6228,16 +6235,16 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>57</v>
@@ -6248,16 +6255,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>57</v>
@@ -6273,20 +6280,20 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5">
       <c r="A10" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>115</v>
@@ -6300,77 +6307,77 @@
         <v>222</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1">
       <c r="A12" s="21"/>
       <c r="C12" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1">
       <c r="A13" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" t="s">
         <v>352</v>
       </c>
-      <c r="B13" t="s">
-        <v>353</v>
-      </c>
       <c r="C13" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14" t="s">
         <v>370</v>
       </c>
-      <c r="B14" t="s">
-        <v>371</v>
-      </c>
       <c r="C14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -6380,27 +6387,27 @@
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -6464,19 +6471,19 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>187</v>
@@ -6487,16 +6494,16 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>57</v>
@@ -6507,16 +6514,16 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -6527,16 +6534,16 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>57</v>
@@ -6547,16 +6554,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -6570,15 +6577,15 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5">
       <c r="A10" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>115</v>
@@ -6592,45 +6599,45 @@
         <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="54" customHeight="1">
       <c r="A12" s="21"/>
       <c r="C12" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.25" customHeight="1">
       <c r="A13" s="21"/>
       <c r="C13" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="3:3">
@@ -6640,7 +6647,7 @@
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -6650,27 +6657,27 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="3:3">
@@ -6690,42 +6697,42 @@
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="3:4">
       <c r="C34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="C36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="3:4">
       <c r="C38" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="3:4">
@@ -6735,7 +6742,7 @@
     </row>
     <row r="40" spans="3:4">
       <c r="C40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>78</v>
@@ -6797,7 +6804,7 @@
         <v>185</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>196</v>
@@ -6811,16 +6818,16 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>57</v>
@@ -6831,13 +6838,13 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>197</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>195</v>
@@ -6851,13 +6858,13 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>198</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>194</v>
@@ -6871,13 +6878,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>223</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>195</v>
@@ -6891,16 +6898,16 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -6909,16 +6916,16 @@
         <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -6932,7 +6939,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>188</v>
@@ -6960,7 +6967,7 @@
     </row>
     <row r="14" spans="1:6" ht="54" customHeight="1">
       <c r="A14" s="35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>189</v>
@@ -6987,7 +6994,7 @@
     </row>
     <row r="17" spans="1:4" ht="59.25" customHeight="1">
       <c r="A17" s="35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>212</v>
@@ -7001,12 +7008,12 @@
     </row>
     <row r="19" spans="1:4">
       <c r="C19" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="C20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7021,7 +7028,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="C23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7085,17 +7092,17 @@
     </row>
     <row r="34" spans="3:4">
       <c r="C34" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="3:4">
@@ -7162,16 +7169,16 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>436</v>
-      </c>
       <c r="D2" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>57</v>
@@ -7188,16 +7195,16 @@
     <row r="5" spans="1:6">
       <c r="A5" s="19"/>
       <c r="B5" s="33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="20"/>
       <c r="B6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>115</v>
@@ -7209,49 +7216,49 @@
     <row r="7" spans="1:6" ht="52.5" customHeight="1">
       <c r="A7" s="21"/>
       <c r="B7" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="27" customHeight="1">
       <c r="A8" s="21"/>
       <c r="B8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7261,20 +7268,20 @@
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>459</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -7328,14 +7335,14 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>57</v>
@@ -7346,14 +7353,14 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -7407,8 +7414,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7446,7 +7453,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>224</v>
@@ -7460,7 +7467,7 @@
         <v>92</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>12</v>
@@ -7480,13 +7487,13 @@
         <v>92</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>58</v>
@@ -7500,13 +7507,13 @@
         <v>92</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>75</v>
@@ -7520,16 +7527,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>8</v>
@@ -7540,16 +7547,16 @@
         <v>92</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>184</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>8</v>
@@ -7560,16 +7567,16 @@
         <v>92</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>8</v>
@@ -7580,16 +7587,16 @@
         <v>92</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>8</v>
@@ -7600,16 +7607,16 @@
         <v>92</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>8</v>
@@ -7620,16 +7627,16 @@
         <v>92</v>
       </c>
       <c r="B11" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>531</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="D11" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>533</v>
-      </c>
       <c r="E11" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>8</v>
@@ -7640,16 +7647,16 @@
         <v>92</v>
       </c>
       <c r="B12" s="48" t="s">
+        <v>539</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>543</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -7658,56 +7665,56 @@
         <v>92</v>
       </c>
       <c r="B13" s="48" t="s">
+        <v>534</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="C13" s="48" t="s">
-        <v>539</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>536</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="58" customFormat="1" ht="148.5">
+    <row r="14" spans="1:6" s="56" customFormat="1" ht="148.5">
       <c r="A14" s="53" t="s">
         <v>92</v>
       </c>
       <c r="B14" s="36" t="s">
+        <v>590</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="D14" s="54" t="s">
+        <v>596</v>
+      </c>
+      <c r="E14" s="54" t="s">
         <v>594</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>598</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>596</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="58" customFormat="1" ht="135">
-      <c r="A15" s="59" t="s">
+    <row r="15" spans="1:6" s="56" customFormat="1" ht="135">
+      <c r="A15" s="57" t="s">
         <v>92</v>
       </c>
       <c r="B15" s="36" t="s">
+        <v>591</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>593</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="D15" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="E15" s="54" t="s">
         <v>595</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>599</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>597</v>
       </c>
       <c r="F15" s="55" t="s">
         <v>8</v>
@@ -7715,22 +7722,22 @@
     </row>
     <row r="16" spans="1:6" ht="216">
       <c r="A16" s="53" t="s">
+        <v>581</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>583</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="D16" s="54" t="s">
+        <v>589</v>
+      </c>
+      <c r="E16" s="54" t="s">
         <v>584</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="F16" s="55" t="s">
         <v>585</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>591</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>586</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="72.75" customHeight="1">
@@ -7744,7 +7751,7 @@
     <row r="18" spans="1:6" ht="30" customHeight="1">
       <c r="A18" s="23"/>
       <c r="B18" s="37" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="24"/>
@@ -7754,7 +7761,7 @@
     <row r="19" spans="1:6" ht="27" customHeight="1">
       <c r="A19" s="23"/>
       <c r="B19" s="37" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="24"/>
@@ -7763,7 +7770,9 @@
     </row>
     <row r="20" spans="1:6" ht="27" customHeight="1">
       <c r="A20" s="23"/>
-      <c r="B20" s="37"/>
+      <c r="B20" s="37" t="s">
+        <v>598</v>
+      </c>
       <c r="C20" s="36"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -7792,7 +7801,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="C24" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7802,7 +7811,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="C26" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7822,27 +7831,27 @@
     </row>
     <row r="30" spans="1:6">
       <c r="C30" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
       <c r="C31" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
       <c r="C32" s="46" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="45" t="s">
-        <v>225</v>
+      <c r="C33" s="60" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="46" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="3:3">
@@ -7852,7 +7861,7 @@
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="3:3">
@@ -7967,7 +7976,7 @@
         <v>92</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>61</v>
@@ -8104,7 +8113,7 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="3:3">
@@ -8254,92 +8263,92 @@
     </row>
     <row r="56" spans="3:4">
       <c r="C56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="D58" s="32" t="s">
         <v>415</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="59" spans="3:4">
       <c r="C59" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D59" s="32" t="s">
         <v>417</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="60" spans="3:4">
       <c r="C60" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="D60" s="32" t="s">
         <v>419</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="D61" s="32" t="s">
         <v>421</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="62" spans="3:4">
       <c r="C62" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="D62" s="32" t="s">
         <v>423</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="63" spans="3:4">
       <c r="C63" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="D63" s="32" t="s">
         <v>425</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="64" spans="3:4">
       <c r="C64" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="3:4">
       <c r="C65" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="D65" s="32" t="s">
         <v>429</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="66" spans="3:4">
       <c r="C66" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="D66" s="32" t="s">
         <v>431</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="67" spans="3:4">
       <c r="C67" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="D67" s="32" t="s">
         <v>433</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="68" spans="3:4">
@@ -8416,7 +8425,7 @@
         <v>71</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>91</v>
@@ -8436,7 +8445,7 @@
         <v>121</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>122</v>
@@ -8496,7 +8505,7 @@
         <v>74</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>63</v>
@@ -9251,7 +9260,7 @@
         <v>169</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>170</v>
@@ -9268,16 +9277,16 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>561</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>57</v>
@@ -9291,7 +9300,7 @@
         <v>171</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>172</v>
@@ -9308,13 +9317,13 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>184</v>
@@ -9368,13 +9377,13 @@
         <v>92</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>178</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E8" s="42" t="s">
         <v>63</v>
@@ -9386,7 +9395,7 @@
     <row r="9" spans="1:6" ht="27">
       <c r="A9" s="5"/>
       <c r="B9" s="38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -9411,10 +9420,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="39" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -9423,42 +9432,42 @@
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
+        <v>548</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>549</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D16" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
+        <v>555</v>
+      </c>
+      <c r="D18" t="s">
         <v>556</v>
-      </c>
-      <c r="D18" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
+        <v>562</v>
+      </c>
+      <c r="D19" t="s">
         <v>563</v>
-      </c>
-      <c r="D19" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="32" spans="3:4">
@@ -9516,16 +9525,16 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>187</v>
@@ -9536,16 +9545,16 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>187</v>
@@ -9556,16 +9565,16 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="26" t="s">
         <v>526</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>527</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -9576,16 +9585,16 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>57</v>
@@ -9596,16 +9605,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>508</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>57</v>
@@ -9621,22 +9630,22 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="56" t="s">
-        <v>512</v>
-      </c>
-      <c r="B10" s="57"/>
+      <c r="A10" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="B10" s="59"/>
       <c r="C10" s="15" t="s">
         <v>115</v>
       </c>
@@ -9647,77 +9656,77 @@
     <row r="11" spans="1:6" ht="54" customHeight="1">
       <c r="A11" s="21"/>
       <c r="C11" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1">
       <c r="A12" s="21"/>
       <c r="C12" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1">
       <c r="A13" s="21"/>
       <c r="C13" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21"/>
       <c r="C14" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="21"/>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21"/>
       <c r="C16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="3:4">
